--- a/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
+++ b/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
@@ -1,62 +1,921 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/POMWithPageFactoryFramework/src/main/java/com/test/automation/uiAutomation/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13515" windowHeight="6330" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="AdmissionFormData" sheetId="2" r:id="rId2"/>
+    <sheet name="VapsIVRMlogindata" sheetId="3" r:id="rId3"/>
+    <sheet name="HutchingOthersDetails" sheetId="4" r:id="rId4"/>
+    <sheet name="HutchingResidentialAddress" sheetId="5" r:id="rId5"/>
+    <sheet name="FatherDetailsHutchings" sheetId="6" r:id="rId6"/>
+    <sheet name="MotherDetailsHutching" sheetId="7" r:id="rId7"/>
+    <sheet name="MonthlyIncomeHutching" sheetId="8" r:id="rId8"/>
+    <sheet name="SiblingDetailsData" sheetId="9" r:id="rId9"/>
+    <sheet name="preAdmEnquiryData" sheetId="10" r:id="rId10"/>
+    <sheet name="StudentAdmFormData" sheetId="11" r:id="rId11"/>
+    <sheet name="AdmFormAddress" sheetId="12" r:id="rId12"/>
+    <sheet name="AdmFormParentData" sheetId="13" r:id="rId13"/>
+    <sheet name="BondDetailsData" sheetId="14" r:id="rId14"/>
+    <sheet name="PreviousSchoolData" sheetId="15" r:id="rId15"/>
+    <sheet name="GuardianDetailsData" sheetId="16" r:id="rId16"/>
+    <sheet name="AdmSiblingDetails" sheetId="17" r:id="rId17"/>
+    <sheet name="PreAdmission_EnquirySearchData" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
-  <si>
-    <t>userName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="291">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>runMode</t>
+  </si>
+  <si>
+    <t>Arvind Bose</t>
+  </si>
+  <si>
+    <t>arvind.bose@ats.com</t>
+  </si>
+  <si>
+    <t>8123212751</t>
+  </si>
+  <si>
+    <t>rohitK</t>
+  </si>
+  <si>
+    <t>VapsTech@121</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Vaps Techn</t>
+  </si>
+  <si>
+    <t>vaps2@vaps.com</t>
+  </si>
+  <si>
+    <t>7117117112</t>
+  </si>
+  <si>
+    <t>vapstechn</t>
+  </si>
+  <si>
+    <t>VapsTechn@122</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Vaps Techno</t>
+  </si>
+  <si>
+    <t>vaps3@vaps.com</t>
+  </si>
+  <si>
+    <t>7117117113</t>
+  </si>
+  <si>
+    <t>vapstechno</t>
+  </si>
+  <si>
+    <t>VapsTechno@123</t>
+  </si>
+  <si>
+    <t>Vaps soft</t>
+  </si>
+  <si>
+    <t>vaps4@vaps.com</t>
+  </si>
+  <si>
+    <t>7117117114</t>
+  </si>
+  <si>
+    <t>vapssoft</t>
+  </si>
+  <si>
+    <t>VapsTechs@122</t>
+  </si>
+  <si>
+    <t>Vaps Technosoft</t>
+  </si>
+  <si>
+    <t>vaps5@vaps.com</t>
+  </si>
+  <si>
+    <t>7117117115</t>
+  </si>
+  <si>
+    <t>vapstechnosoft</t>
+  </si>
+  <si>
+    <t>VapsTechn@123</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>mName</t>
+  </si>
+  <si>
+    <t>sName</t>
+  </si>
+  <si>
+    <t>mNumber</t>
+  </si>
+  <si>
+    <t>birthPlace</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>caste</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>selClass</t>
+  </si>
+  <si>
+    <t>Arvind</t>
+  </si>
+  <si>
+    <t>Bose</t>
+  </si>
+  <si>
+    <t>Jha</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Hinduism</t>
+  </si>
+  <si>
+    <t>BRAHMIN</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>arvindbose1986@gmail.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>runMode</t>
-  </si>
-  <si>
-    <t>automation@gmail.com</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>Radha@123</t>
+  </si>
+  <si>
+    <t>arvind</t>
+  </si>
+  <si>
+    <t>Rakesh@321</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>aadhar</t>
+  </si>
+  <si>
+    <t>PlayGroup</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>712726245712</t>
+  </si>
+  <si>
+    <t>Cultural Fest</t>
+  </si>
+  <si>
+    <t>helped in organizing blood donation camp</t>
+  </si>
+  <si>
+    <t>rStreet</t>
+  </si>
+  <si>
+    <t>rArea</t>
+  </si>
+  <si>
+    <t>rCountry</t>
+  </si>
+  <si>
+    <t>rState</t>
+  </si>
+  <si>
+    <t>rCity</t>
+  </si>
+  <si>
+    <t>rPinZip</t>
+  </si>
+  <si>
+    <t>16B Cross</t>
+  </si>
+  <si>
+    <t>Pai Layout</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>560016</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>fsurName</t>
+  </si>
+  <si>
+    <t>fQualification</t>
+  </si>
+  <si>
+    <t>fserBusiness</t>
+  </si>
+  <si>
+    <t>fDesignation</t>
+  </si>
+  <si>
+    <t>fNationality</t>
+  </si>
+  <si>
+    <t>fOfficeAdd</t>
+  </si>
+  <si>
+    <t>fmobileNo</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>1st main, ITPl</t>
+  </si>
+  <si>
+    <t>8778778771</t>
+  </si>
+  <si>
+    <t>Sita</t>
+  </si>
+  <si>
+    <t>8778778772</t>
+  </si>
+  <si>
+    <t>fIncome</t>
+  </si>
+  <si>
+    <t>mIncome</t>
+  </si>
+  <si>
+    <t>altrContact</t>
+  </si>
+  <si>
+    <t>altrEmail</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>8778778777</t>
+  </si>
+  <si>
+    <t>ram_jha@vapstech.com</t>
+  </si>
+  <si>
+    <t>siblingName</t>
+  </si>
+  <si>
+    <t>siblingClass</t>
+  </si>
+  <si>
+    <t>siblingAdmNo</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HP01901</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>AddressLine3</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PinCode</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>enquiryMsg</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>#102, castle</t>
+  </si>
+  <si>
+    <t>16B Cross, 1st main</t>
+  </si>
+  <si>
+    <t>8061616060</t>
+  </si>
+  <si>
+    <t>Primary Schools</t>
+  </si>
+  <si>
+    <t>Admission Information</t>
+  </si>
+  <si>
+    <t>#102, Vars Eildon Castle</t>
+  </si>
+  <si>
+    <t>16B Cross,1st Main</t>
+  </si>
+  <si>
+    <t>9481779504</t>
+  </si>
+  <si>
+    <t>8060606161</t>
+  </si>
+  <si>
+    <t>arvindbose16@gmail.com</t>
+  </si>
+  <si>
+    <t>Kinder Gardenn</t>
+  </si>
+  <si>
+    <t>Admission Procedure for Test class</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>RegistrationNo</t>
+  </si>
+  <si>
+    <t>AdmissionNo</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Caste Category</t>
+  </si>
+  <si>
+    <t>Caste</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>BirthPlace</t>
+  </si>
+  <si>
+    <t>BirthCertificate</t>
+  </si>
+  <si>
+    <t>Caste Certificate</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MotherTongue</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>MobNo</t>
+  </si>
+  <si>
+    <t>Aadhar</t>
+  </si>
+  <si>
+    <t>BloodGroup</t>
+  </si>
+  <si>
+    <t>Bank Ac</t>
+  </si>
+  <si>
+    <t>BPL No</t>
+  </si>
+  <si>
+    <t>Concession</t>
+  </si>
+  <si>
+    <t>Kumud</t>
+  </si>
+  <si>
+    <t>Ranjan</t>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>2000002</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>HDFC0001012</t>
+  </si>
+  <si>
+    <t>KAB0012345</t>
+  </si>
+  <si>
+    <t>KAC0054321</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>712726278999</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>50100012121212</t>
+  </si>
+  <si>
+    <t>BPL12312312312312312</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>KAB0012346</t>
+  </si>
+  <si>
+    <t>KAC0054322</t>
+  </si>
+  <si>
+    <t>712726278989</t>
+  </si>
+  <si>
+    <t>50100012121222</t>
+  </si>
+  <si>
+    <t>BPL12312312312312322</t>
+  </si>
+  <si>
+    <t>EnterAddress</t>
+  </si>
+  <si>
+    <t>EnterArea</t>
+  </si>
+  <si>
+    <t>Pin code</t>
+  </si>
+  <si>
+    <t>#102, apartment</t>
+  </si>
+  <si>
+    <t>KHB Colony</t>
+  </si>
+  <si>
+    <t>SurName</t>
+  </si>
+  <si>
+    <t>AadharNum</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>officeAddress</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Desination</t>
+  </si>
+  <si>
+    <t>Bank AC No</t>
+  </si>
+  <si>
+    <t>Monthly Income</t>
+  </si>
+  <si>
+    <t>Annual Income</t>
+  </si>
+  <si>
+    <t>Mobile NO</t>
+  </si>
+  <si>
+    <t>Ajit</t>
+  </si>
+  <si>
+    <t>712627212345</t>
+  </si>
+  <si>
+    <t>#111, KHB Colony</t>
+  </si>
+  <si>
+    <t>Software engineer</t>
+  </si>
+  <si>
+    <t>622123456</t>
+  </si>
+  <si>
+    <t>HDFC0001234</t>
+  </si>
+  <si>
+    <t>KAC00123456</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>712627278945</t>
+  </si>
+  <si>
+    <t>BCOM</t>
+  </si>
+  <si>
+    <t>#55,Basveswaranagar</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>722456789</t>
+  </si>
+  <si>
+    <t>SBIN0001234</t>
+  </si>
+  <si>
+    <t>KAC00123451</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>480000</t>
+  </si>
+  <si>
+    <t>ramya@vapstech.com</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>FirstBond</t>
+  </si>
+  <si>
+    <t>bondTwo</t>
+  </si>
+  <si>
+    <t>BondThree</t>
+  </si>
+  <si>
+    <t>BondFour</t>
+  </si>
+  <si>
+    <t>BondFive</t>
+  </si>
+  <si>
+    <t>BondSix</t>
+  </si>
+  <si>
+    <t>BondOne</t>
+  </si>
+  <si>
+    <t>BondSeven</t>
+  </si>
+  <si>
+    <t>RationCard</t>
+  </si>
+  <si>
+    <t>AadharCard</t>
+  </si>
+  <si>
+    <t>PanCard</t>
+  </si>
+  <si>
+    <t>BBMPBond</t>
+  </si>
+  <si>
+    <t>HDFCBond</t>
+  </si>
+  <si>
+    <t>Ddbond</t>
+  </si>
+  <si>
+    <t>SportsBond</t>
+  </si>
+  <si>
+    <t>GreatBond</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>12354</t>
+  </si>
+  <si>
+    <t>12534</t>
+  </si>
+  <si>
+    <t>15234</t>
+  </si>
+  <si>
+    <t>51234</t>
+  </si>
+  <si>
+    <t>12435</t>
+  </si>
+  <si>
+    <t>14235</t>
+  </si>
+  <si>
+    <t>41235</t>
+  </si>
+  <si>
+    <t>13245</t>
+  </si>
+  <si>
+    <t>31245</t>
+  </si>
+  <si>
+    <t>21345</t>
+  </si>
+  <si>
+    <t>54321</t>
+  </si>
+  <si>
+    <t>45321</t>
+  </si>
+  <si>
+    <t>43521</t>
+  </si>
+  <si>
+    <t>43251</t>
+  </si>
+  <si>
+    <t>43215</t>
+  </si>
+  <si>
+    <t>SchoolName</t>
+  </si>
+  <si>
+    <t>SchoolType</t>
+  </si>
+  <si>
+    <t>PreviousClass</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>PassedYear</t>
+  </si>
+  <si>
+    <t>TotalMarks</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>AddressSchool</t>
+  </si>
+  <si>
+    <t>ReasonForLeaving</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Baldwin School</t>
+  </si>
+  <si>
+    <t>Kinder Garden</t>
+  </si>
+  <si>
+    <t>UKG</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>khb colony,1st stage</t>
+  </si>
+  <si>
+    <t>Far from my current location</t>
+  </si>
+  <si>
+    <t>GuardianName</t>
+  </si>
+  <si>
+    <t>GuardianAddress</t>
+  </si>
+  <si>
+    <t>GuardianEmailId</t>
+  </si>
+  <si>
+    <t>GuardianPhoneNum</t>
+  </si>
+  <si>
+    <t>Ravi Jha</t>
+  </si>
+  <si>
+    <t>#805, New Delhi</t>
+  </si>
+  <si>
+    <t>ravi@gmail.com</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Asha</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>StudentName</t>
+  </si>
+  <si>
+    <t>Arvind Bose Arvind</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>2000004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,6 +930,43 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,10 +999,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -165,7 +1108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -200,7 +1143,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -375,125 +1318,1800 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:arvind.bose@ats.com"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4:B5" r:id="rId4" display="vaps3@vaps.com"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="A3:A6" r:id="rId8" display="Vaps Techn"/>
+    <hyperlink ref="E2" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10"/>
+    <hyperlink ref="E4" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="E6" r:id="rId13"/>
+    <hyperlink ref="F2" r:id="rId14"/>
+    <hyperlink ref="F3" r:id="rId15"/>
+    <hyperlink ref="F4" r:id="rId16"/>
+    <hyperlink ref="F5" r:id="rId17"/>
+    <hyperlink ref="F6" r:id="rId18"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="12" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="24.25" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="31.5">
+      <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection sqref="A1:X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="21.25" customWidth="1"/>
+    <col min="23" max="23" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="R3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2">
+        <v>560016</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="mailto:Radha@123"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>